--- a/temp/xlsx/1.11.2024.xlsx
+++ b/temp/xlsx/1.11.2024.xlsx
@@ -4663,7 +4663,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>ТСРР КИП (МДК. 03.01)</t>
+          <t>Тех эл/монтаж.работ</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">

--- a/temp/xlsx/1.11.2024.xlsx
+++ b/temp/xlsx/1.11.2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3751,20 +3751,20 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Информ.</t>
+          <t>Химия</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Капустина Н.В.</t>
+          <t>Ершова К.С.</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>303</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76">
@@ -3774,7 +3774,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3806,55 +3806,57 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Петрова О.Б.</t>
+          <t>Капустина Н.В.</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>КСА-262</t>
+          <t>БХ-34</t>
         </is>
       </c>
       <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G77" t="n">
         <v>1</v>
       </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Орг.осущ.код.закон.в суде</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Салтыкова Е.А.</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>РЦ-4</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Орг.осущ.код.закон.в суде</t>
+          <t>Информ.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Салтыкова Е.А.</t>
+          <t>Петрова О.Б.</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>515</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78">
@@ -3864,14 +3866,14 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Прав.осн.орг-ции деят-ти судеб.приставов</t>
+          <t>Орг.осущ.код.закон.в суде</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3889,7 +3891,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Прав.осн.орг-ции деят-ти судеб.приставов</t>
+          <t>Орг.осущ.код.закон.в суде</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3908,14 +3910,14 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Испол.пр-во</t>
+          <t>Прав.осн.орг-ции деят-ти судеб.приставов</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3933,7 +3935,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Испол.пр-во</t>
+          <t>Прав.осн.орг-ции деят-ти судеб.приставов</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3948,49 +3950,45 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>БП1-111</t>
+          <t>КСА-262</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Инст.ср-ва разраб. ПО</t>
+          <t>Испол.пр-во</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Василенко Д.А.</t>
+          <t>Салтыкова Е.А.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>без.аудит</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>РЦ-4</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Испол.пр-во</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Салтыкова Е.А.</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>515</v>
       </c>
     </row>
     <row r="81">
@@ -4000,39 +3998,45 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t>Инст.ср-ва разраб. ПО</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Рудакова О.И.</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>547</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
+          <t>Василенко Д.А.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>без.аудит</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Инст.ср-ва разраб. ПО</t>
+          <t> </t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Рудакова О.И.</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>547</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -4045,7 +4049,7 @@
         <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -4054,31 +4058,27 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Польченко А.О.</t>
+          <t>Рудакова О.И.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>303</v>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>547</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Инст.ср-ва разраб. ПО</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Рудакова О.И.</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>547</v>
       </c>
     </row>
     <row r="83">
@@ -4088,39 +4088,43 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Ин.яз.в ПД</t>
+          <t>УП.01</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Каширина Л.В.</t>
+          <t>Польченко А.О.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>535</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
+        <v>303</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t> </t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Польченко А.О.</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>309</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -4130,41 +4134,39 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Разраб.прог.модулей</t>
+          <t>Ин.яз.в ПД</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
+          <t>Каширина Л.В.</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>535</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>УП.01</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
           <t>Польченко А.О.</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Б.А.</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>2</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Разраб.прог.модулей</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Польченко А.О.</t>
-        </is>
-      </c>
       <c r="J84" t="n">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85">
@@ -4174,26 +4176,24 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Разраб.прог.модулей</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Польченко А.О.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Б.А.</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Разработ.мобил.приложений</t>
+          <t>Разраб.прог.модулей</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4216,49 +4216,47 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>БП2-111</t>
+          <t>БП1-111</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
           <t>Разработ.мобил.приложений</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>Польченко А.О.</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>без.ауд</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="J86" t="n">
+        <v>303</v>
       </c>
     </row>
     <row r="87">
@@ -4268,24 +4266,24 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Поддерж.и тест.прогр.модулей</t>
+          <t>Разработ.мобил.приложений</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Нестеренко Д.М.</t>
+          <t>Польченко А.О.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>БЕЗ АУД</t>
+          <t>без.ауд</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4316,23 +4314,25 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t>Поддерж.и тест.прогр.модулей</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Рудакова О.И.</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>547</v>
+          <t>Нестеренко Д.М.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>БЕЗ АУД</t>
+        </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4358,27 +4358,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>С-74</t>
+          <t>БП2-111</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Информ.</t>
+          <t>УП.01</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Старикова А.С.</t>
+          <t>Рудакова О.И.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4408,87 +4408,89 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Информ.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>0</v>
+          <t>Старикова А.С.</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>542</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Осн.психологии</t>
+          <t> </t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Мельникова Ю.С.</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>307</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>СВ-134</t>
+          <t>С-74</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>География</t>
+          <t> </t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Рунг К.М.</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
+          <t> </t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Осн.психологии</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Мельникова Ю.С.</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
         <v>307</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>География</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Рунг К.М.</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>1 А</t>
-        </is>
       </c>
     </row>
     <row r="92">
@@ -4498,40 +4500,40 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>История</t>
+          <t>География</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Есина М.В.</t>
+          <t>Рунг К.М.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Осн.безоп.защ.Родины</t>
+          <t>География</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Ковальчук Ю.А.</t>
+          <t>Рунг К.М.</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>23а</t>
+          <t>1 А</t>
         </is>
       </c>
     </row>
@@ -4542,43 +4544,41 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t> </t>
+          <t>История</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Есина М.В.</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>225</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Осн.психологии</t>
+          <t>Осн.безоп.защ.Родины</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Мельникова Ю.С.</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>307</v>
+          <t>Ковальчук Ю.А.</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>23а</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4615,28 +4615,26 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>Осн.психологии</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Ольховой Е.С.</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>С.з 1к</t>
-        </is>
+          <t>Мельникова Ю.С.</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>307</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>КИП1-193</t>
+          <t>СВ-134</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4663,17 +4661,17 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Тех эл/монтаж.работ</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Лисневская Т.И.</t>
+          <t>Ольховой Е.С.</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>РЦ-5</t>
+          <t>С.з 1к</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4682,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -4728,11 +4726,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>КИП1-194</t>
+          <t>КИП1-193</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -4759,22 +4757,24 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Мир.культ.проц.</t>
+          <t>Тех эл/монтаж.работ</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Морозова Т.А.</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>212</v>
+          <t>Лисневская Т.И.</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>РЦ-5</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>НП-161</t>
+          <t>КИП1-193</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -4785,111 +4785,105 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ремонт.работы</t>
+          <t>Допуски и тех.изм.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Андреев М.А.</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>1 А</t>
-        </is>
+          <t>Уленкова Е.В.</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>532</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Орг.произв.раб.персонала</t>
+          <t>Допуски и тех.изм.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Таужанов Т.К.</t>
+          <t>Уленкова Е.В.</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>425</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>НП-161</t>
+          <t>КИП1-194</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Ремонт.работы</t>
+          <t> </t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Андреев М.А.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1 А</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Мир.культ.проц.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Морозова Т.А.</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>НП-163</t>
+          <t>НП-161</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Ремонт.работы</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Андреев М.А.</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t> </t>
+          <t>1 А</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -4897,310 +4891,312 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Электротех.и электрон.</t>
+          <t>Орг.произв.раб.персонала</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Рак А.П.</t>
+          <t>Таужанов Т.К.</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>214</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>НП-163</t>
+          <t>НП-161</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Ремонт.работы</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Андреев М.А.</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
+          <t>1 А</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Электротех.и электрон.</t>
+          <t> </t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Рак А.П.</t>
-        </is>
-      </c>
-      <c r="J101" t="n">
-        <v>214</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ТО-82</t>
+          <t>НП-163</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Наладка и испытания теплотех.оборуд.</t>
+          <t> </t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Глухов С.В.</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>10</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Наладка и испытания теплотех.оборуд.</t>
+          <t>Электротех.и электрон.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Глухов С.В.</t>
+          <t>Рак А.П.</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>314</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ТО-83</t>
+          <t>НП-163</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Экспл.,расчет и выбор теплотех.оборуд</t>
+          <t> </t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Глухов С.В.</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>2</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Экспл.,расчет и выбор теплотех.оборуд</t>
+          <t>Электротех.и электрон.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Глухов С.В.</t>
+          <t>Рак А.П.</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>314</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ТО-84</t>
+          <t>ТО-82</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Наладка и испытания теплотех.оборуд.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Глухов С.В.</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>10</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Осн.философии</t>
+          <t>Наладка и испытания теплотех.оборуд.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Меха Н.В.</t>
+          <t>Глухов С.В.</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>517</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ТО-84</t>
+          <t>ТО-83</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Осн.философии</t>
+          <t>Экспл.,расчет и выбор теплотех.оборуд</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Меха Н.В.</t>
+          <t>Глухов С.В.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>517</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Экспл.,расчет и выбор теплотех.оборуд</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Глухов С.В.</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Л1-13</t>
+          <t>ТО-84</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>История</t>
+          <t> </t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Нейфельд О.Н.</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>416</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Осн.философии</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Меха Н.В.</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>517</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Л-12</t>
+          <t>ТО-84</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Осн.аналит.хим.и ФХМА</t>
+          <t>Осн.философии</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Мистюкова Л.А.</t>
+          <t>Меха Н.В.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>121</v>
+        <v>517</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5226,47 +5222,43 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Л-12</t>
+          <t>Л1-13</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Осн.аналит.хим.и ФХМА</t>
+          <t>История</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Мистюкова Л.А.</t>
+          <t>Нейфельд О.Н.</t>
         </is>
       </c>
       <c r="F108" t="n">
+        <v>416</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Общ.и неорган.химия</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Ершова К.С.</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
         <v>121</v>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
       </c>
     </row>
     <row r="109">
@@ -5276,44 +5268,42 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Осн.аналит.хим.и ФХМА</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>0</v>
+          <t>Мистюкова Л.А.</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>121</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Осн.аналит.хим.и ФХМА</t>
+          <t> </t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Мистюкова Л.А.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Экск</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -5324,10 +5314,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -5370,7 +5360,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5418,7 +5408,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -5460,11 +5450,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Л-14</t>
+          <t>Л-12</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5487,76 +5477,78 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t>Осн.аналит.хим.и ФХМА</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Гудим В.В.</t>
-        </is>
-      </c>
-      <c r="J113" t="n">
-        <v>412</v>
+          <t>Мистюкова Л.А.</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Экск</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Л-14</t>
+          <t>Л-12</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Осн.аналит.хим.и ФХМА</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>2</v>
+          <t>Мистюкова Л.А.</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>121</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t> </t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Гудим В.В.</t>
-        </is>
-      </c>
-      <c r="J114" t="n">
-        <v>412</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Л2-13</t>
+          <t>Л-14</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5583,158 +5575,164 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Информ.тех-гии в ПД</t>
+          <t>Химия</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Петрова О.Б.</t>
+          <t>Ершова К.С.</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Э-41</t>
+          <t>Л-14</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>3</v>
       </c>
-      <c r="C116" t="n">
-        <v>0</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Эл.машины и аппараты</t>
+          <t> </t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Данильченко Л.Р.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>б.а.4</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>2</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Гудим В.В.</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>412</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Э-41</t>
+          <t>Л-14</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>4</v>
       </c>
-      <c r="C117" t="n">
-        <v>0</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>УП.01</t>
+          <t> </t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ахметова А.С.</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>314</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Осн.ТЭ и обсл.эл/оборуд.</t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Данильченко Л.Р.</t>
+          <t>Гудим В.В.</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>210</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Э-41</t>
+          <t>Л2-13</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>5</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>План-ние и орг-ция работы структ.подразд.</t>
+          <t> </t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ахметова А.С.</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>314</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Осн.ТЭ и обсл.эл/оборуд.</t>
+          <t>Информ.тех-гии в ПД</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Данильченко Л.Р.</t>
+          <t>Петрова О.Б.</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Э-41</t>
+          <t>Л2-13</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -5757,216 +5755,208 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Осн.ТЭ и обсл.эл/оборуд.</t>
+          <t>Общ.и неорган.химия</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Данильченко Л.Р.</t>
+          <t>Ершова К.С.</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>210</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Э-42</t>
+          <t>Э-41</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Эл.машины и аппараты</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Данильченко Л.Р.</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
+          <t>б.а.4</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t> </t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Фризен Л.Н.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>С/з 3</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Э-42</t>
+          <t>Э-41</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Эл.машины и аппараты</t>
+          <t>УП.01</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
+          <t>Ахметова А.С.</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>314</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Осн.ТЭ и обсл.эл/оборуд.</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
           <t>Данильченко Л.Р.</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>б.а.4</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Электроснабжение</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Горобей С.С.</t>
-        </is>
-      </c>
       <c r="J121" t="n">
-        <v>9</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Э-42</t>
+          <t>Э-41</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Ин.яз.в ПД</t>
+          <t>План-ние и орг-ция работы структ.подразд.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Кашуба Н.Ю.</t>
+          <t>Ахметова А.С.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>413</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>314</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Осн.ТЭ и обсл.эл/оборуд.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Данильченко Л.Р.</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Э-42</t>
+          <t>Э-41</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>5</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t> </t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Фризен Л.Н.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>С/з 3</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Осн.ТЭ и обсл.эл/оборуд.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Данильченко Л.Р.</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Э-43</t>
+          <t>Э-42</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -5989,72 +5979,72 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Электротех.</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Рак А.П.</t>
-        </is>
-      </c>
-      <c r="J124" t="n">
-        <v>214</v>
+          <t>Фризен Л.Н.</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>С/з 3</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Э-43</t>
+          <t>Э-42</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Электротех.</t>
+          <t>Эл.машины и аппараты</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Рак А.П.</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>214</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Данильченко Л.Р.</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>б.а.4</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Электроснабжение</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Горобей С.С.</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ХТ-251</t>
+          <t>Э-42</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -6065,16 +6055,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t>Ин.яз.в ПД</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Ермакова Н.В.</t>
+          <t>Кашуба Н.Ю.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6100,183 +6090,197 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ХТ-251</t>
+          <t>Э-42</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>5</v>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C127" t="n">
+        <v>0</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Фризен Л.Н.</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>1</v>
+          <t>С/з 3</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>ВР по проф. Оператор тех.установки</t>
+          <t> </t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Годзина Е.А.</t>
-        </is>
-      </c>
-      <c r="J127" t="n">
-        <v>537</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ХТ-252</t>
+          <t>Э-43</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Процессы  и аппараты</t>
+          <t> </t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Первухина Т.В.</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>316</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Осн.тех.обслуж.пром.оборуд.</t>
+          <t>Электротех.</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Мартынюк А.В.</t>
+          <t>Рак А.П.</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>10</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ХТ-252</t>
+          <t>Э-43</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Процессы  и аппараты</t>
+          <t>Электротех.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Первухина Т.В.</t>
+          <t>Рак А.П.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>316</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Осн.тех.обслуж.пром.оборуд.</t>
+          <t> </t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Мартынюк А.В.</t>
-        </is>
-      </c>
-      <c r="J129" t="n">
-        <v>10</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ХТ-252</t>
+          <t>ХТ-251</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Управ.технол.процессом</t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Первухина Т.В.</t>
+          <t>Ермакова Н.В.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>316</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0</v>
+        <v>427</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Осн.тех.обслуж.пром.оборуд.</t>
+          <t> </t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Мартынюк А.В.</t>
-        </is>
-      </c>
-      <c r="J130" t="n">
-        <v>10</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ХТ-252</t>
+          <t>ХТ-251</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -6299,166 +6303,156 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Осн.тех.обслуж.пром.оборуд.</t>
+          <t>ВР по проф. Оператор тех.установки</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Мартынюк А.В.</t>
+          <t>Годзина Е.А.</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>10</v>
+        <v>537</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ХТ-253</t>
+          <t>ХТ-252</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Процессы  и аппараты</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Первухина Т.В.</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>316</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Электротех.и электрон.</t>
+          <t>Осн.тех.обслуж.пром.оборуд.</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Рак А.П.</t>
+          <t>Мартынюк А.В.</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>214</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ХТ-253</t>
+          <t>ХТ-252</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Аналитич.химия</t>
+          <t>Процессы  и аппараты</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ВАКАНСИЯ</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Б.А.2</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Первухина Т.В.</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>316</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Осн.тех.обслуж.пром.оборуд.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Мартынюк А.В.</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ХТ-254</t>
+          <t>ХТ-252</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Биология</t>
+          <t>Управ.технол.процессом</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Овсянникова А.А.</t>
+          <t>Первухина Т.В.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>412</v>
+        <v>316</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t>Осн.тех.обслуж.пром.оборуд.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Ермакова Н.В.</t>
+          <t>Мартынюк А.В.</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>427</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ХТ-254</t>
+          <t>ХТ-252</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6485,90 +6479,90 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Физика</t>
+          <t>Осн.тех.обслуж.пром.оборуд.</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Окаевич В.И.</t>
+          <t>Мартынюк А.В.</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>309</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ББ-122</t>
+          <t>ХТ-253</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t> </t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Фризен Л.Н.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>С/з 3</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Электротех.и электрон.</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Рак А.П.</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ББ-122</t>
+          <t>ХТ-253</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Орг.и планир. налог.деят-ти</t>
+          <t>Аналитич.химия</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Ибраева О.Ю.</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>515</v>
+          <t>ВАКАНСИЯ</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Б.А.2</t>
+        </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6594,97 +6588,89 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ББ-122</t>
+          <t>ХТ-254</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Осн.анализа бух.отчетности</t>
+          <t>Биология</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ВАКАНСИЯ 1</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>без аудит</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Овсянникова А.А.</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>412</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Ермакова Н.В.</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>427</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ББ-122</t>
+          <t>ХТ-254</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Осн.анализа бух.отчетности</t>
+          <t> </t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ВАКАНСИЯ 1</t>
+          <t> </t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>без ауд.</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Физика</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Окаевич В.И.</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="140">
@@ -6694,43 +6680,45 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>5</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Фризен Л.Н.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G140" t="n">
-        <v>0</v>
+          <t>С/з 3</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Осн.анализа бух.отчетности</t>
+          <t> </t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Чуркина Н.Н.</t>
-        </is>
-      </c>
-      <c r="J140" t="n">
-        <v>515</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -6740,137 +6728,149 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>6</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Орг.и планир. налог.деят-ти</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
+          <t>Ибраева О.Ю.</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>515</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Осн.анализа бух.отчетности</t>
+          <t> </t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Чуркина Н.Н.</t>
-        </is>
-      </c>
-      <c r="J141" t="n">
-        <v>515</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ББ-123</t>
+          <t>ББ-122</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Орг.расч.с бюдж. и внебюдж.фондами</t>
+          <t>Осн.анализа бух.отчетности</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ибраева О.Ю.</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>515</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1</v>
+          <t>ВАКАНСИЯ 1</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>без аудит</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Информ.тех-гии в ПД</t>
+          <t> </t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Старикова А.С.</t>
-        </is>
-      </c>
-      <c r="J142" t="n">
-        <v>542</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ББ-123</t>
+          <t>ББ-122</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Налоги и налогообложение</t>
+          <t>Осн.анализа бух.отчетности</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Ибраева О.Ю.</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>515</v>
-      </c>
-      <c r="G143" t="n">
-        <v>2</v>
+          <t>ВАКАНСИЯ 1</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>без ауд.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Информ.тех-гии в ПД</t>
+          <t> </t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Старикова А.С.</t>
-        </is>
-      </c>
-      <c r="J143" t="n">
-        <v>542</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ББ-124</t>
+          <t>ББ-122</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -6897,164 +6897,156 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>История</t>
+          <t>Осн.анализа бух.отчетности</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Нейфельд О.Н.</t>
+          <t>Чуркина Н.Н.</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>416</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ББ-124</t>
+          <t>ББ-122</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
-      </c>
-      <c r="C145" t="n">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Информ.тех-гии в ПД</t>
+          <t> </t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Бобкова Е.П.</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>304</v>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Осн.анализа бух.отчетности</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Чуркина Н.Н.</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>515</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Э-44</t>
+          <t>ББ-123</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C146" t="n">
+        <v>0</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Орг.расч.с бюдж. и внебюдж.фондами</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Ибраева О.Ю.</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>515</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Матем.</t>
+          <t>Информ.тех-гии в ПД</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Останина Н.С.</t>
+          <t>Старикова А.С.</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>205</v>
+        <v>542</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Э-44</t>
+          <t>ББ-123</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Налоги и налогообложение</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Ибраева О.Ю.</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>515</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Осн.психологии</t>
+          <t>Информ.тех-гии в ПД</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Мельникова Ю.С.</t>
+          <t>Старикова А.С.</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>307</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Э-44</t>
+          <t>ББ-124</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -7077,46 +7069,46 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t>История</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Кашуба Н.Ю.</t>
+          <t>Нейфельд О.Н.</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Э-44</t>
+          <t>ББ-124</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Матем.</t>
+          <t>Информ.тех-гии в ПД</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Останина Н.С.</t>
+          <t>Бобкова Е.П.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -7146,367 +7138,365 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>6</v>
-      </c>
-      <c r="C150" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Информ.</t>
+          <t> </t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Петрова О.Б.</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
-        <v>306</v>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Матем.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Останина Н.С.</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ЭС-172</t>
+          <t>Э-44</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>4</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Тех.обслуж.эл.оборуд.</t>
+          <t> </t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Горобей С.С.</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>9</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="G151" t="n">
         <v>0</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Тех.диагност.и ремонт эл/оборуд.</t>
+          <t>Осн.психологии</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Козлюк А.С.</t>
+          <t>Мельникова Ю.С.</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>206</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ЭС-172</t>
+          <t>Э-44</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>5</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Тех.диагност.и ремонт эл/оборуд.</t>
+          <t> </t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Козлюк А.С.</t>
+          <t> </t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>б.а.4</t>
+          <t> </t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Тех.диагност.и ремонт эл/оборуд.</t>
+          <t>Ин.яз.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Козлюк А.С.</t>
+          <t>Кашуба Н.Ю.</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>206</v>
+        <v>413</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ЭС-173</t>
+          <t>Э-44</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Тех.экспл.ЭЭС</t>
+          <t>Матем.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Горобей С.С.</t>
+          <t>Останина Н.С.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>9</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>АСУ в эл/энергосистемах</t>
+          <t> </t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Козлюк А.С.</t>
-        </is>
-      </c>
-      <c r="J153" t="n">
-        <v>206</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ЭС-173</t>
+          <t>Э-44</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Информ.</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G154" t="n">
-        <v>0</v>
+          <t>Петрова О.Б.</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>306</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>АСУ в эл/энергосистемах</t>
+          <t> </t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Козлюк А.С.</t>
-        </is>
-      </c>
-      <c r="J154" t="n">
-        <v>206</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ЭС-174</t>
+          <t>ЭС-172</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Физ-ра</t>
+          <t>Тех.обслуж.эл.оборуд.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Мальцева Т.А.</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>С/з 3 к</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Горобей С.С.</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>9</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Тех.диагност.и ремонт эл/оборуд.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Козлюк А.С.</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ЭС-174</t>
+          <t>ЭС-172</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Инж.граф.</t>
+          <t>Тех.диагност.и ремонт эл/оборуд.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Новикова Н.Н.</t>
-        </is>
-      </c>
-      <c r="F156" t="n">
-        <v>423</v>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Козлюк А.С.</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>б.а.4</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Тех.диагност.и ремонт эл/оборуд.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Козлюк А.С.</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ЭС-174</t>
+          <t>ЭС-173</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>2</v>
       </c>
       <c r="C157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Инж.граф.</t>
+          <t>Тех.экспл.ЭЭС</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Шнайдер Т.А.</t>
+          <t>Горобей С.С.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>424</v>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t> </t>
+          <t>АСУ в эл/энергосистемах</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+          <t>Козлюк А.С.</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ЭС-174</t>
+          <t>ЭС-173</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -7533,195 +7523,381 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Метролог.,станд.и сертиф-ция</t>
+          <t>АСУ в эл/энергосистемах</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Сулейменова Д.Б.</t>
+          <t>Козлюк А.С.</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ЭМ1-104</t>
+          <t>ЭС-174</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>География</t>
+          <t>Физ-ра</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Рунг К.М.</t>
-        </is>
-      </c>
-      <c r="F159" t="n">
-        <v>307</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0</v>
+          <t>Мальцева Т.А.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>С/з 3 к</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>География</t>
+          <t> </t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Рунг К.М.</t>
+          <t> </t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>1 А</t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ЭМ1-104</t>
+          <t>ЭС-174</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>4</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Инж.граф.</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G160" t="n">
-        <v>2</v>
+          <t>Новикова Н.Н.</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>423</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Ин.яз.</t>
+          <t> </t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Кашуба Н.Ю.</t>
-        </is>
-      </c>
-      <c r="J160" t="n">
-        <v>413</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>БЮ-154</t>
+          <t>ЭС-174</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Правоохр-ные и судеб.органы</t>
+          <t>Инж.граф.</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Салтыкова Е.А.</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>РЦ-4</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
-        <v>0</v>
+          <t>Шнайдер Т.А.</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>424</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Правоохр-ные и судеб.органы</t>
+          <t> </t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Салтыкова Е.А.</t>
-        </is>
-      </c>
-      <c r="J161" t="n">
-        <v>515</v>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
+          <t>ЭС-174</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>4</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Метролог.,станд.и сертиф-ция</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Сулейменова Д.Б.</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ЭМ1-104</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>География</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Рунг К.М.</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>307</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>География</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Рунг К.М.</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>1 А</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>ЭМ1-104</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>4</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Ин.яз.</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Кашуба Н.Ю.</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
           <t>БЮ-154</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="B165" t="n">
+        <v>4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Правоохр-ные и судеб.органы</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Салтыкова Е.А.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>РЦ-4</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Правоохр-ные и судеб.органы</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Салтыкова Е.А.</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>БЮ-154</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
         <v>5</v>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G162" t="n">
-        <v>0</v>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
         <is>
           <t>ФК</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>Фризен Л.Н.</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>С/з 3</t>
         </is>
